--- a/resultadosK.xlsx
+++ b/resultadosK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,418 +445,453 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2^32</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>22</v>
       </c>
       <c r="C2" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32</v>
+      </c>
+      <c r="B11" t="n">
+        <v>22</v>
+      </c>
+      <c r="C11" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2^33</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22</v>
+      </c>
+      <c r="C12" t="n">
         <v>8.77</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2^34</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>23</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" t="n">
         <v>8.869999999999999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2^35</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>22</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35</v>
+      </c>
+      <c r="B14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C14" t="n">
         <v>8.890000000000001</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2^36</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>22</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
         <v>8.74</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2^37</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>23</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2^38</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B17" t="n">
+        <v>22</v>
+      </c>
+      <c r="C17" t="n">
         <v>8.81</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2^39</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="18">
+      <c r="A18" t="n">
+        <v>39</v>
+      </c>
+      <c r="B18" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" t="n">
         <v>9.01</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2^40</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>40</v>
+      </c>
+      <c r="B19" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" t="n">
         <v>9.01</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2^41</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>22</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41</v>
+      </c>
+      <c r="B20" t="n">
+        <v>22</v>
+      </c>
+      <c r="C20" t="n">
         <v>8.65</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2^42</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>22</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42</v>
+      </c>
+      <c r="B21" t="n">
+        <v>22</v>
+      </c>
+      <c r="C21" t="n">
         <v>8.869999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2^43</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>23</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="22">
+      <c r="A22" t="n">
+        <v>43</v>
+      </c>
+      <c r="B22" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" t="n">
         <v>8.880000000000001</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2^44</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>23</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="23">
+      <c r="A23" t="n">
+        <v>44</v>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="n">
         <v>8.94</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2^45</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>23</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2^46</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>46</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
         <v>8.789999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2^47</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>22</v>
-      </c>
-      <c r="C17" t="n">
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="n">
         <v>8.699999999999999</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2^48</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="27">
+      <c r="A27" t="n">
+        <v>48</v>
+      </c>
+      <c r="B27" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" t="n">
         <v>8.970000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2^49</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>23</v>
-      </c>
-      <c r="C19" t="n">
+    <row r="28">
+      <c r="A28" t="n">
+        <v>49</v>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" t="n">
         <v>8.92</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2^50</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>23</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="29">
+      <c r="A29" t="n">
+        <v>50</v>
+      </c>
+      <c r="B29" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" t="n">
         <v>8.91</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2^51</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>22</v>
-      </c>
-      <c r="C21" t="n">
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51</v>
+      </c>
+      <c r="B30" t="n">
+        <v>22</v>
+      </c>
+      <c r="C30" t="n">
         <v>8.93</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2^52</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>22</v>
-      </c>
-      <c r="C22" t="n">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52</v>
+      </c>
+      <c r="B31" t="n">
+        <v>22</v>
+      </c>
+      <c r="C31" t="n">
         <v>9.140000000000001</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2^53</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53</v>
+      </c>
+      <c r="B32" t="n">
+        <v>22</v>
+      </c>
+      <c r="C32" t="n">
         <v>8.789999999999999</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2^54</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54</v>
+      </c>
+      <c r="B33" t="n">
+        <v>22</v>
+      </c>
+      <c r="C33" t="n">
         <v>8.81</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2^55</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>23</v>
-      </c>
-      <c r="C25" t="n">
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="n">
         <v>8.9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2^56</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>23</v>
-      </c>
-      <c r="C26" t="n">
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56</v>
+      </c>
+      <c r="B35" t="n">
+        <v>23</v>
+      </c>
+      <c r="C35" t="n">
         <v>8.91</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2^57</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>22</v>
-      </c>
-      <c r="C27" t="n">
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
         <v>8.94</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2^58</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58</v>
+      </c>
+      <c r="B37" t="n">
         <v>13</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>9.460000000000001</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2^59</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>22</v>
-      </c>
-      <c r="C29" t="n">
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" t="n">
         <v>8.77</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2^60</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>23</v>
-      </c>
-      <c r="C30" t="n">
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60</v>
+      </c>
+      <c r="B39" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" t="n">
         <v>8.880000000000001</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2^61</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>22</v>
-      </c>
-      <c r="C31" t="n">
+    <row r="40">
+      <c r="A40" t="n">
+        <v>61</v>
+      </c>
+      <c r="B40" t="n">
+        <v>22</v>
+      </c>
+      <c r="C40" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2^62</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>22</v>
-      </c>
-      <c r="C32" t="n">
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62</v>
+      </c>
+      <c r="B41" t="n">
+        <v>22</v>
+      </c>
+      <c r="C41" t="n">
         <v>8.85</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2^63</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>22</v>
-      </c>
-      <c r="C33" t="n">
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
         <v>8.92</v>
       </c>
     </row>

--- a/resultadosK.xlsx
+++ b/resultadosK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,353 +545,595 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>8.9</v>
+        <v>5.51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>8.77</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>8.869999999999999</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>22</v>
       </c>
       <c r="C14" t="n">
-        <v>8.890000000000001</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>8.74</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>9.029999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>8.81</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>9.01</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>9.01</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
         <v>22</v>
       </c>
       <c r="C20" t="n">
-        <v>8.65</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
         <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>8.869999999999999</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="n">
-        <v>8.880000000000001</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>8.94</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>8.789999999999999</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>22</v>
       </c>
       <c r="C26" t="n">
-        <v>8.699999999999999</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>8.970000000000001</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="n">
-        <v>8.92</v>
+        <v>9.74</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
         <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>8.91</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
         <v>22</v>
       </c>
       <c r="C30" t="n">
-        <v>8.93</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>9.140000000000001</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B32" t="n">
         <v>22</v>
       </c>
       <c r="C32" t="n">
-        <v>8.789999999999999</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
         <v>22</v>
       </c>
       <c r="C33" t="n">
-        <v>8.81</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="n">
-        <v>8.9</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
         <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>8.91</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B36" t="n">
         <v>22</v>
       </c>
       <c r="C36" t="n">
-        <v>8.94</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C37" t="n">
-        <v>9.460000000000001</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>8.77</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C39" t="n">
-        <v>8.880000000000001</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>8.85</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>22</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8.869999999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>23</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>23</v>
+      </c>
+      <c r="C45" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>23</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>22</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.970000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>23</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>22</v>
+      </c>
+      <c r="C52" t="n">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>9.140000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>23</v>
+      </c>
+      <c r="C56" t="n">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" t="n">
+        <v>9.460000000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>22</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>23</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>22</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>22</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B42" t="n">
-        <v>22</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B64" t="n">
+        <v>22</v>
+      </c>
+      <c r="C64" t="n">
         <v>8.92</v>
       </c>
     </row>
